--- a/Db.xlsx
+++ b/Db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Desktop\Uni\Master\TFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Desktop\Uni\Master\TFM\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F189B549-4A04-4487-9D7F-8CDCDB5A7D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642EB438-AE03-4737-B811-3A2FC9B76A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{721FEFB9-C273-4EDC-8889-3DBAFFB3A2C4}"/>
   </bookViews>
@@ -143,15 +143,6 @@
     <t>Number_of_replicates_post</t>
   </si>
   <si>
-    <t>Perturbation_date_day</t>
-  </si>
-  <si>
-    <t>Perturbation_date_month</t>
-  </si>
-  <si>
-    <t>Perturbation_date_year</t>
-  </si>
-  <si>
     <t>Time_interval_type</t>
   </si>
   <si>
@@ -161,15 +152,6 @@
     <t>Time_between_samplings_months</t>
   </si>
   <si>
-    <t>Perturbation_type_1</t>
-  </si>
-  <si>
-    <t>Perturbation_type_2</t>
-  </si>
-  <si>
-    <t>Perturbation_type_3</t>
-  </si>
-  <si>
     <t>Data_acquisition</t>
   </si>
   <si>
@@ -242,9 +224,6 @@
     <t>1980s</t>
   </si>
   <si>
-    <t>Time after perturbation</t>
-  </si>
-  <si>
     <t>Anthropogenic</t>
   </si>
   <si>
@@ -996,6 +975,27 @@
   </si>
   <si>
     <t>Therophytes data</t>
+  </si>
+  <si>
+    <t>Disturbance_date_day</t>
+  </si>
+  <si>
+    <t>Disturbance_date_month</t>
+  </si>
+  <si>
+    <t>Disturbance_date_year</t>
+  </si>
+  <si>
+    <t>Disturbance_type_1</t>
+  </si>
+  <si>
+    <t>Disturbance_type_2</t>
+  </si>
+  <si>
+    <t>Disturbance_type_3</t>
+  </si>
+  <si>
+    <t>Time after disturbance</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1AB4F-1FA1-4687-A998-C51B80A7E140}">
   <dimension ref="A1:AW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="AH21" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,84 +1553,84 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3">
         <v>847</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3">
         <v>2013</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3">
         <v>13.013610999999999</v>
@@ -1639,25 +1639,25 @@
         <v>43.106667000000002</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="3">
         <v>30</v>
@@ -1688,7 +1688,7 @@
         <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AI2" s="3">
         <v>30</v>
@@ -1696,10 +1696,10 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN2" s="3">
         <v>360</v>
@@ -1708,22 +1708,22 @@
         <v>360</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AV2" s="3">
         <v>-7.5819156874033453</v>
@@ -1734,40 +1734,40 @@
     </row>
     <row r="3" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3">
         <v>601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3">
         <v>2013</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3">
         <v>23.241667</v>
@@ -1776,25 +1776,25 @@
         <v>51.408332999999999</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1808,7 +1808,7 @@
         <v>0.11</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="3">
         <v>24</v>
@@ -1825,7 +1825,7 @@
         <v>0.13</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI3" s="3">
         <v>12</v>
@@ -1833,10 +1833,10 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AN3" s="3">
         <v>12</v>
@@ -1845,22 +1845,22 @@
         <v>12</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AV3" s="3">
         <v>-4.1839337534456558</v>
@@ -1871,40 +1871,40 @@
     </row>
     <row r="4" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
         <v>594</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3">
         <v>2017</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M4" s="3">
         <v>-2.4611130000000001</v>
@@ -1913,25 +1913,25 @@
         <v>43.375022999999999</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1945,7 +1945,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AB4" s="3">
         <v>399</v>
@@ -1962,7 +1962,7 @@
         <v>0.05</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AI4" s="3">
         <v>399</v>
@@ -1970,10 +1970,10 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AN4" s="3">
         <v>264</v>
@@ -1982,22 +1982,22 @@
         <v>264</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AV4" s="3">
         <v>-3.7776127355834732</v>
@@ -2008,40 +2008,40 @@
     </row>
     <row r="5" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
         <v>865</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3">
         <v>2011</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M5" s="3">
         <v>12.311931</v>
@@ -2050,25 +2050,25 @@
         <v>45.231403</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -2082,7 +2082,7 @@
         <v>1.32</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AB5" s="3">
         <v>16</v>
@@ -2099,7 +2099,7 @@
         <v>0.45</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AI5" s="3">
         <v>16</v>
@@ -2110,7 +2110,7 @@
         <v>2003</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN5" s="3">
         <v>36</v>
@@ -2119,19 +2119,19 @@
         <v>36</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="3">
@@ -2143,40 +2143,40 @@
     </row>
     <row r="6" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3">
         <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3">
         <v>2020</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M6" s="3">
         <v>16.681944000000001</v>
@@ -2185,25 +2185,25 @@
         <v>49.225000000000001</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -2217,7 +2217,7 @@
         <v>4.78</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AB6" s="3">
         <v>16</v>
@@ -2234,7 +2234,7 @@
         <v>13.24</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AI6" s="3">
         <v>16</v>
@@ -2245,7 +2245,7 @@
         <v>2009</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN6" s="3">
         <v>66</v>
@@ -2254,19 +2254,19 @@
         <v>72</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="3">
@@ -2278,40 +2278,40 @@
     </row>
     <row r="7" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3">
         <v>974</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3">
         <v>2012</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M7" s="3">
         <v>18.899999999999999</v>
@@ -2320,25 +2320,25 @@
         <v>47.9</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -2352,7 +2352,7 @@
         <v>0.09</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AB7" s="3">
         <v>356</v>
@@ -2369,7 +2369,7 @@
         <v>2.34</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AI7" s="3">
         <v>356</v>
@@ -2380,7 +2380,7 @@
         <v>2001</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN7" s="3">
         <v>84</v>
@@ -2389,19 +2389,19 @@
         <v>96</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="3">
@@ -2413,40 +2413,40 @@
     </row>
     <row r="8" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3">
         <v>673</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3">
         <v>2011</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M8" s="3">
         <v>26.833334000000001</v>
@@ -2455,25 +2455,25 @@
         <v>38.5</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -2487,7 +2487,7 @@
         <v>7.14</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AB8" s="3">
         <v>12</v>
@@ -2504,7 +2504,7 @@
         <v>8.49</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AI8" s="3">
         <v>12</v>
@@ -2515,7 +2515,7 @@
         <v>2000</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN8" s="3">
         <v>12</v>
@@ -2524,22 +2524,22 @@
         <v>36</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AV8" s="3">
         <v>-1.1901826887288429</v>
@@ -2550,40 +2550,40 @@
     </row>
     <row r="9" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3">
         <v>849</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3">
         <v>2021</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M9" s="3">
         <v>-0.65804200000000002</v>
@@ -2592,25 +2592,25 @@
         <v>37.651181000000001</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2624,7 +2624,7 @@
         <v>75.95</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AB9" s="3">
         <v>18</v>
@@ -2641,7 +2641,7 @@
         <v>339.39</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AI9" s="3">
         <v>21</v>
@@ -2652,7 +2652,7 @@
         <v>2012</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN9" s="3">
         <v>72</v>
@@ -2661,19 +2661,19 @@
         <v>108</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU9" s="4"/>
       <c r="AV9" s="3">
@@ -2685,40 +2685,40 @@
     </row>
     <row r="10" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B10" s="3">
         <v>633</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>2018</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M10" s="3">
         <v>14.308332999999999</v>
@@ -2727,30 +2727,30 @@
         <v>42.274999999999999</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y10" s="3">
         <v>18.7</v>
@@ -2759,7 +2759,7 @@
         <v>6.09</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AB10" s="3">
         <v>27</v>
@@ -2767,7 +2767,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AF10" s="3">
         <v>22.18</v>
@@ -2776,7 +2776,7 @@
         <v>3.45</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AI10" s="3">
         <v>27</v>
@@ -2784,29 +2784,29 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN10" s="3">
         <v>24</v>
       </c>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU10" s="4"/>
       <c r="AV10" s="3">
@@ -2818,40 +2818,40 @@
     </row>
     <row r="11" spans="1:49" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3">
         <v>505</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3">
         <v>2017</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M11" s="3">
         <v>9.5715830000000004</v>
@@ -2860,25 +2860,25 @@
         <v>51.731583000000001</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2892,7 +2892,7 @@
         <v>7.5</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AB11" s="3">
         <v>49</v>
@@ -2909,7 +2909,7 @@
         <v>17.18</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AI11" s="3">
         <v>49</v>
@@ -2917,10 +2917,10 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AN11" s="3">
         <v>552</v>
@@ -2929,19 +2929,19 @@
         <v>552</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU11" s="4"/>
       <c r="AV11" s="3">
@@ -2953,40 +2953,40 @@
     </row>
     <row r="12" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B12" s="3">
         <v>633</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3">
         <v>2018</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3">
         <v>14.308332999999999</v>
@@ -2995,30 +2995,30 @@
         <v>42.274999999999999</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y12" s="3">
         <v>21.05</v>
@@ -3027,7 +3027,7 @@
         <v>2.68</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AB12" s="3">
         <v>18</v>
@@ -3035,7 +3035,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AF12" s="3">
         <v>23.03</v>
@@ -3044,7 +3044,7 @@
         <v>4.16</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AI12" s="3">
         <v>18</v>
@@ -3052,29 +3052,29 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN12" s="3">
         <v>24</v>
       </c>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU12" s="4"/>
       <c r="AV12" s="3">
@@ -3086,40 +3086,40 @@
     </row>
     <row r="13" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B13" s="3">
         <v>632</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3">
         <v>2006</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M13" s="3">
         <v>12.05</v>
@@ -3128,25 +3128,25 @@
         <v>41.966667000000001</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -3160,7 +3160,7 @@
         <v>3.8</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AB13" s="3">
         <v>18</v>
@@ -3177,7 +3177,7 @@
         <v>3.6</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AI13" s="3">
         <v>14</v>
@@ -3185,10 +3185,10 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AN13" s="3">
         <v>12</v>
@@ -3197,22 +3197,22 @@
         <v>12</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AV13" s="3">
         <v>-2.6240773509969E-2</v>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="14" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B14" s="3">
         <v>528</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H14" s="3">
         <v>2014</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M14" s="3">
         <v>34.858556</v>
@@ -3265,25 +3265,25 @@
         <v>32.117806000000002</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P14" s="4">
         <v>2008</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V14" s="3">
         <v>10</v>
@@ -3301,7 +3301,7 @@
         <v>0.46</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AB14" s="3">
         <v>4</v>
@@ -3322,7 +3322,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AI14" s="3">
         <v>3</v>
@@ -3337,7 +3337,7 @@
         <v>2008</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN14" s="3">
         <v>0.6</v>
@@ -3346,19 +3346,19 @@
         <v>2.5</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU14" s="4"/>
       <c r="AV14" s="3">
@@ -3370,40 +3370,40 @@
     </row>
     <row r="15" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B15" s="3">
         <v>632</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3">
         <v>2006</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M15" s="3">
         <v>12.05</v>
@@ -3412,25 +3412,25 @@
         <v>41.966667000000001</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -3444,7 +3444,7 @@
         <v>5.6</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AB15" s="3">
         <v>18</v>
@@ -3461,7 +3461,7 @@
         <v>6.2</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AI15" s="3">
         <v>14</v>
@@ -3469,10 +3469,10 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM15" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AN15" s="3">
         <v>12</v>
@@ -3481,22 +3481,22 @@
         <v>12</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AT15" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AV15" s="3">
         <v>0.26580263383949693</v>
@@ -3507,40 +3507,40 @@
     </row>
     <row r="16" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B16" s="3">
         <v>317</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3">
         <v>2018</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M16" s="3">
         <v>12.167515</v>
@@ -3549,25 +3549,25 @@
         <v>44.602800000000002</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -3581,7 +3581,7 @@
         <v>1.08</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AB16" s="3">
         <v>12</v>
@@ -3598,7 +3598,7 @@
         <v>0.46</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AI16" s="3">
         <v>12</v>
@@ -3609,7 +3609,7 @@
         <v>2003</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN16" s="3">
         <v>96</v>
@@ -3618,19 +3618,19 @@
         <v>108</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU16" s="4"/>
       <c r="AV16" s="3">
@@ -3642,40 +3642,40 @@
     </row>
     <row r="17" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B17" s="3">
         <v>317</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3">
         <v>2018</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M17" s="3">
         <v>12.167515</v>
@@ -3684,25 +3684,25 @@
         <v>44.602800000000002</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -3716,7 +3716,7 @@
         <v>0.46</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AB17" s="3">
         <v>12</v>
@@ -3733,7 +3733,7 @@
         <v>0.74</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AI17" s="3">
         <v>12</v>
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN17" s="3">
         <v>36</v>
@@ -3753,19 +3753,19 @@
         <v>48</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU17" s="4"/>
       <c r="AV17" s="3">
@@ -3777,40 +3777,40 @@
     </row>
     <row r="18" spans="1:49" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B18" s="3">
         <v>505</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H18" s="3">
         <v>2017</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M18" s="3">
         <v>9.5715830000000004</v>
@@ -3819,25 +3819,25 @@
         <v>51.731583000000001</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -3851,7 +3851,7 @@
         <v>11.72</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB18" s="3">
         <v>16</v>
@@ -3868,7 +3868,7 @@
         <v>10.3</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AI18" s="3">
         <v>16</v>
@@ -3876,10 +3876,10 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AN18" s="3">
         <v>552</v>
@@ -3888,19 +3888,19 @@
         <v>552</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="3">
@@ -3912,40 +3912,40 @@
     </row>
     <row r="19" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B19" s="3">
         <v>294</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H19" s="3">
         <v>2023</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M19" s="3">
         <v>13.53669</v>
@@ -3954,25 +3954,25 @@
         <v>55.940420000000003</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -3986,7 +3986,7 @@
         <v>22.9</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AB19" s="3">
         <v>27</v>
@@ -4003,7 +4003,7 @@
         <v>27.67</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AI19" s="3">
         <v>27</v>
@@ -4014,7 +4014,7 @@
         <v>2001</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN19" s="3">
         <v>240</v>
@@ -4023,22 +4023,22 @@
         <v>384</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AV19" s="3">
         <v>0.66974432775897219</v>
@@ -4049,40 +4049,40 @@
     </row>
     <row r="20" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B20" s="3">
         <v>586</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3">
         <v>2021</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M20" s="3">
         <v>25.866510000000002</v>
@@ -4091,25 +4091,25 @@
         <v>40.167850000000001</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -4123,7 +4123,7 @@
         <v>0.48</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AB20" s="3">
         <v>15</v>
@@ -4140,7 +4140,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AI20" s="3">
         <v>15</v>
@@ -4151,7 +4151,7 @@
         <v>2020</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN20" s="3">
         <v>9</v>
@@ -4160,19 +4160,19 @@
         <v>108</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU20" s="4"/>
       <c r="AV20" s="3">
@@ -4184,40 +4184,40 @@
     </row>
     <row r="21" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B21" s="3">
         <v>304</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H21" s="3">
         <v>2020</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M21" s="3">
         <v>12.6081</v>
@@ -4226,25 +4226,25 @@
         <v>41.388100000000001</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3">
@@ -4260,7 +4260,7 @@
         <v>0.39</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AB21" s="3">
         <v>22</v>
@@ -4279,7 +4279,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AI21" s="3">
         <v>22</v>
@@ -4290,7 +4290,7 @@
         <v>2007</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN21" s="3">
         <v>9</v>
@@ -4299,19 +4299,19 @@
         <v>15</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU21" s="4"/>
       <c r="AV21" s="3">
@@ -4323,40 +4323,40 @@
     </row>
     <row r="22" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B22" s="3">
         <v>920</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H22" s="3">
         <v>2020</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M22" s="3">
         <v>9.4310279999999995</v>
@@ -4365,25 +4365,25 @@
         <v>46.307333</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -4397,7 +4397,7 @@
         <v>0.22</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AB22" s="3">
         <v>12</v>
@@ -4414,7 +4414,7 @@
         <v>0.41</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AI22" s="3">
         <v>15</v>
@@ -4427,7 +4427,7 @@
         <v>2017</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN22" s="3">
         <v>12</v>
@@ -4436,22 +4436,22 @@
         <v>36</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU22" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AV22" s="3">
         <v>1.084509868838216</v>
@@ -4462,40 +4462,40 @@
     </row>
     <row r="23" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B23" s="3">
         <v>294</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H23" s="3">
         <v>2023</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M23" s="3">
         <v>13.53669</v>
@@ -4504,25 +4504,25 @@
         <v>55.940420000000003</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -4536,7 +4536,7 @@
         <v>25.15</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AB23" s="3">
         <v>27</v>
@@ -4553,7 +4553,7 @@
         <v>31.27</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AI23" s="3">
         <v>27</v>
@@ -4564,7 +4564,7 @@
         <v>1989</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN23" s="3">
         <v>384</v>
@@ -4573,22 +4573,22 @@
         <v>384</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AV23" s="3">
         <v>1.231197501077254</v>
@@ -4599,38 +4599,38 @@
     </row>
     <row r="24" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H24" s="3">
         <v>2009</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M24" s="3">
         <v>2.1045310000000002</v>
@@ -4639,25 +4639,25 @@
         <v>41.691493999999999</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -4671,7 +4671,7 @@
         <v>2.87</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AB24" s="3">
         <v>2</v>
@@ -4688,7 +4688,7 @@
         <v>11.85</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AI24" s="3">
         <v>24</v>
@@ -4701,7 +4701,7 @@
         <v>2003</v>
       </c>
       <c r="AM24" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN24" s="3">
         <v>23</v>
@@ -4710,19 +4710,19 @@
         <v>24</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS24" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AU24" s="4"/>
       <c r="AV24" s="3">
@@ -4734,40 +4734,40 @@
     </row>
     <row r="25" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B25" s="3">
         <v>241</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H25" s="3">
         <v>2008</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M25" s="3">
         <v>14.658735999999999</v>
@@ -4776,25 +4776,25 @@
         <v>57.31232</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3">
@@ -4810,7 +4810,7 @@
         <v>7.34</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AB25" s="3">
         <v>42</v>
@@ -4829,7 +4829,7 @@
         <v>6.34</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AI25" s="3">
         <v>42</v>
@@ -4840,7 +4840,7 @@
         <v>2003</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN25" s="3">
         <v>10</v>
@@ -4849,22 +4849,22 @@
         <v>24</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AR25" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS25" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT25" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AV25" s="3">
         <v>1.548733324885978</v>
@@ -4875,40 +4875,40 @@
     </row>
     <row r="26" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B26" s="3">
         <v>723</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H26" s="3">
         <v>2016</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M26" s="3">
         <v>2.9398810000000002</v>
@@ -4917,25 +4917,25 @@
         <v>42.471896000000001</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -4949,7 +4949,7 @@
         <v>0.38</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AB26" s="3">
         <v>39</v>
@@ -4966,7 +4966,7 @@
         <v>0.38</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AI26" s="3">
         <v>39</v>
@@ -4979,7 +4979,7 @@
         <v>2012</v>
       </c>
       <c r="AM26" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN26" s="3">
         <v>20</v>
@@ -4988,22 +4988,22 @@
         <v>24</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AR26" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AS26" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AT26" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AU26" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AV26" s="3">
         <v>2.006242188213609</v>
@@ -5014,40 +5014,40 @@
     </row>
     <row r="27" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B27" s="3">
         <v>847</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H27" s="3">
         <v>2013</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M27" s="3">
         <v>13.013610999999999</v>
@@ -5056,25 +5056,25 @@
         <v>43.106667000000002</v>
       </c>
       <c r="O27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -5088,7 +5088,7 @@
         <v>1.5</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AB27" s="3">
         <v>30</v>
@@ -5105,7 +5105,7 @@
         <v>0.24</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AI27" s="3">
         <v>30</v>
@@ -5113,10 +5113,10 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AM27" s="3" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN27" s="3">
         <v>360</v>
@@ -5125,22 +5125,22 @@
         <v>360</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AS27" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AT27" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AU27" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AV27" s="3">
         <v>6.1196655832489864</v>

--- a/Db.xlsx
+++ b/Db.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Desktop\Uni\Master\TFM\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642EB438-AE03-4737-B811-3A2FC9B76A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B1B36-45F1-4235-911D-70AEAEB5C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{721FEFB9-C273-4EDC-8889-3DBAFFB3A2C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Github" sheetId="1" r:id="rId1"/>
+    <sheet name="Github" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="277">
   <si>
     <t>Study_code</t>
   </si>
@@ -398,69 +398,15 @@
     <t>Study 5</t>
   </si>
   <si>
-    <t>Resprouting trees drive understory vegetation dynamics following logging in a temperate forest</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-020-65367-5</t>
-  </si>
-  <si>
-    <t>Matula, Radim; Repka, Radomir; Sebesta, Jan; Pettit, Joseph L.; Chamagne, Juliette; Sramek, Martin; Horgan, Katherine; Madera, Petr</t>
-  </si>
-  <si>
-    <t>Scientific Reports</t>
-  </si>
-  <si>
-    <t>Matula, R.; Repka, R.; Sebesta, J.; Pettit, J. L.; Chamagne, J.; Sramek, M.; Horgan, K. &amp; Madera, P. (2020). Resprouting trees drive understory vegetation dynamics following logging in a temperate forest. Scientific Reports 10(9231).</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>2008-2014</t>
-  </si>
-  <si>
     <t>Forest</t>
   </si>
   <si>
     <t>Species richness</t>
   </si>
   <si>
-    <t>16 subplots</t>
-  </si>
-  <si>
-    <t>Management (logging)</t>
-  </si>
-  <si>
     <t>Study 6</t>
   </si>
   <si>
-    <t>Dynamic Response of Herbaceous Vegetation to Gap Opening in a Central European Beech Stand</t>
-  </si>
-  <si>
-    <t>DOI: 10.14214/sf.65 </t>
-  </si>
-  <si>
-    <t>Kelemen, Kristof; Mihok, Barbara; Galhidy, Laszlo; Standovar, Tibor</t>
-  </si>
-  <si>
-    <t>Silva Fennica</t>
-  </si>
-  <si>
-    <t>Kelemen, K.; Mihók, B.; Galhidy, L.; Standovár, T.; Gálhidy, B. &amp; Standovár, L. (2012). Dynamic response of herbaceous vegetation to gap opening in a Central European beech stand. Silva Fennica 46: 53-65.</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>2000, 2001, 2002, 2004, 2006, 2008</t>
-  </si>
-  <si>
-    <t>8 gaps (3 large gaps, 5 small gaps); 65 replicates per large gap, 32 replicates per small gap (33 replicates in 1 small gap)</t>
-  </si>
-  <si>
-    <t>Gap opening</t>
-  </si>
-  <si>
     <t>Study 7</t>
   </si>
   <si>
@@ -539,27 +485,6 @@
     <t>Study 9</t>
   </si>
   <si>
-    <t>Early responses of biodiversity indicators to various thinning treatments in mountain beech forests</t>
-  </si>
-  <si>
-    <t>doi: 10.3832/ifor2733-011</t>
-  </si>
-  <si>
-    <t>Lombardi, Fabio; Di Lella, Stefania; Altieri, Valeria; Di Benedetto, Simone; Giancola, Carmen; Lasserre, Bruno; Kutnar, Lado; Tognetti, Roberto; Marchetti, Marco</t>
-  </si>
-  <si>
-    <t>iForest</t>
-  </si>
-  <si>
-    <t>Lombardi, F.; Lella, S. D.; Altieri, V.; Benedetto, S. D.; Giancola, C.; Lasserre, B.; Kutnar, L.; Tognetti, R. &amp; Marchetti, M. (2018). Early responses of biodiversity indicators to various thinning treatments in mountain beech forests. iForest 11: 609-618.</t>
-  </si>
-  <si>
-    <t>3 replicates per plot, 3 plot per site (3 sites)</t>
-  </si>
-  <si>
-    <t>Management (silvicultural treatment-thinning from below)</t>
-  </si>
-  <si>
     <t>Study 10</t>
   </si>
   <si>
@@ -593,12 +518,6 @@
     <t>Study 11</t>
   </si>
   <si>
-    <t>3 replicates per plot, 3 plot per site (2 sites)</t>
-  </si>
-  <si>
-    <t>Management (silvicultural treatment-crop thinning)</t>
-  </si>
-  <si>
     <t>Study 12</t>
   </si>
   <si>
@@ -854,18 +773,12 @@
     <t>Climate: Alpine; used the median</t>
   </si>
   <si>
-    <t>Study 22</t>
-  </si>
-  <si>
     <t>Pathogen-induced tree loss (extensive elm loss caused by Ophiostoma spp.)</t>
   </si>
   <si>
     <t>Elm dominated ecosystem data</t>
   </si>
   <si>
-    <t>Study 23</t>
-  </si>
-  <si>
     <t>Efectes d'un incendi forestal en una riera mediterrània (Sant Llorenç del Munt, 2003), Capitol 6</t>
   </si>
   <si>
@@ -902,45 +815,6 @@
     <t>Pre: digitalized; post: calculated from article</t>
   </si>
   <si>
-    <t>Study 24</t>
-  </si>
-  <si>
-    <t>Partial cutting reduces species richness of fungi on woody debris in oak-rich forests</t>
-  </si>
-  <si>
-    <t>doi:10.1139/X08-031</t>
-  </si>
-  <si>
-    <t>Norden, Bjorn; Gotmark, Frank; Ryberg, Martin; Paltto, Heidi; Allmer, Johan</t>
-  </si>
-  <si>
-    <t>Canadian Journal of Forest Research </t>
-  </si>
-  <si>
-    <t>Nordén, B.; Götmark, F.; Ryberg, M.; Paltto, H. &amp; Allmér, J. (2008). Partial cutting reduces species richness of fungi on woody debris in oak-rich forests. Canadian Journal of Forest Research 38(7): 1807–1816.</t>
-  </si>
-  <si>
-    <t>2000, 2001, 2003</t>
-  </si>
-  <si>
-    <t>Autumn</t>
-  </si>
-  <si>
-    <t>Fungi</t>
-  </si>
-  <si>
-    <t>2 transects per site (21 sites)</t>
-  </si>
-  <si>
-    <t>Management (partial cut)</t>
-  </si>
-  <si>
-    <t>Boreonemoral climate; basidiomycetes data; SD calculated from CI according to Higgins &amp; Green (2011)</t>
-  </si>
-  <si>
-    <t>Study 25</t>
-  </si>
-  <si>
     <t>Contrasts in short- and long-term responses of Mediterranean reptile species to fire and habitat structure</t>
   </si>
   <si>
@@ -969,9 +843,6 @@
   </si>
   <si>
     <t>SD calculated from CI according to Higgins &amp; Green (2011)</t>
-  </si>
-  <si>
-    <t>Study 26</t>
   </si>
   <si>
     <t>Therophytes data</t>
@@ -1386,11 +1257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1AB4F-1FA1-4687-A998-C51B80A7E140}">
-  <dimension ref="A1:AW27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD021804-1FF5-4B2B-898D-A21C51C1B39F}">
+  <dimension ref="A1:AW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AJ36" sqref="AJ36"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="AU36" sqref="AU36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,8 +1313,6 @@
     <col min="45" max="45" width="17.21875" customWidth="1"/>
     <col min="46" max="46" width="32.88671875" customWidth="1"/>
     <col min="47" max="47" width="53.109375" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" customWidth="1"/>
-    <col min="49" max="49" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1553,13 +1422,13 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>35</v>
@@ -1571,13 +1440,13 @@
         <v>37</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>38</v>
@@ -1588,10 +1457,10 @@
       <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1699,7 +1568,7 @@
         <v>61</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN2" s="3">
         <v>360</v>
@@ -1725,10 +1594,10 @@
       <c r="AU2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AV2" s="3">
+      <c r="AV2">
         <v>-7.5819156874033453</v>
       </c>
-      <c r="AW2" s="3">
+      <c r="AW2">
         <v>0.5776179996798787</v>
       </c>
     </row>
@@ -1862,10 +1731,10 @@
       <c r="AU3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3">
         <v>-4.1839337534456558</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AW3">
         <v>0.39635076998188429</v>
       </c>
     </row>
@@ -1999,10 +1868,10 @@
       <c r="AU4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV4">
         <v>-3.7776127355834732</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW4">
         <v>1.39960716043654E-2</v>
       </c>
     </row>
@@ -2110,7 +1979,7 @@
         <v>2003</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN5" s="3">
         <v>36</v>
@@ -2134,10 +2003,10 @@
         <v>103</v>
       </c>
       <c r="AU5" s="4"/>
-      <c r="AV5" s="3">
+      <c r="AV5">
         <v>-3.7166306077742379</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AW5">
         <v>0.36942607805494149</v>
       </c>
     </row>
@@ -2146,118 +2015,118 @@
         <v>119</v>
       </c>
       <c r="B6" s="3">
-        <v>196</v>
+        <v>673</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="3">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M6" s="3">
-        <v>16.681944000000001</v>
+        <v>26.833334000000001</v>
       </c>
       <c r="N6" s="3">
-        <v>49.225000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="Y6" s="3">
-        <v>16.77</v>
+        <v>24.58</v>
       </c>
       <c r="Z6" s="3">
-        <v>4.78</v>
+        <v>7.14</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB6" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="AF6" s="3">
-        <v>47.93</v>
+        <v>34.25</v>
       </c>
       <c r="AG6" s="3">
-        <v>13.24</v>
+        <v>8.49</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AI6" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN6" s="3">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="AO6" s="3">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AR6" s="3" t="s">
         <v>64</v>
@@ -2266,133 +2135,135 @@
         <v>85</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="3">
-        <v>-3.0515113284885551</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>0.28977021720839669</v>
+        <v>86</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV6">
+        <v>-1.1901826887288429</v>
+      </c>
+      <c r="AW6">
+        <v>0.2016266878185872</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3">
-        <v>974</v>
+        <v>849</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>137</v>
+        <v>111</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="M7" s="3">
-        <v>18.899999999999999</v>
+        <v>-0.65804200000000002</v>
       </c>
       <c r="N7" s="3">
-        <v>47.9</v>
+        <v>37.651181000000001</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="Y7" s="3">
-        <v>0.12</v>
+        <v>467.16</v>
       </c>
       <c r="Z7" s="3">
-        <v>0.09</v>
+        <v>75.95</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AB7" s="3">
-        <v>356</v>
+        <v>18</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="AF7" s="3">
-        <v>4.38</v>
+        <v>741.48</v>
       </c>
       <c r="AG7" s="3">
-        <v>2.34</v>
+        <v>339.39</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AI7" s="3">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN7" s="3">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AO7" s="3">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AR7" s="3" t="s">
         <v>64</v>
@@ -2401,133 +2272,133 @@
         <v>85</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AU7" s="4"/>
-      <c r="AV7" s="3">
-        <v>-2.569972996911285</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>1.0280708722965409E-2</v>
+      <c r="AV7">
+        <v>-1.0546954702622591</v>
+      </c>
+      <c r="AW7">
+        <v>0.1189506830979251</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3">
-        <v>673</v>
+        <v>505</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M8" s="3">
-        <v>26.833334000000001</v>
+        <v>9.5715830000000004</v>
       </c>
       <c r="N8" s="3">
-        <v>38.5</v>
+        <v>51.731583000000001</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="Y8" s="3">
-        <v>24.58</v>
+        <v>12.58</v>
       </c>
       <c r="Z8" s="3">
-        <v>7.14</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AB8" s="3">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="AF8" s="3">
-        <v>34.25</v>
+        <v>20.16</v>
       </c>
       <c r="AG8" s="3">
-        <v>8.49</v>
+        <v>17.18</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AI8" s="3">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="3">
-        <v>2000</v>
+      <c r="AL8" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AN8" s="3">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="AO8" s="3">
-        <v>36</v>
+        <v>552</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AR8" s="3" t="s">
         <v>64</v>
@@ -2536,95 +2407,93 @@
         <v>85</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>-1.1901826887288429</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>0.2016266878185872</v>
+        <v>103</v>
+      </c>
+      <c r="AU8" s="4"/>
+      <c r="AV8">
+        <v>-0.56736843271416071</v>
+      </c>
+      <c r="AW8">
+        <v>4.2524019509711818E-2</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3">
-        <v>849</v>
+        <v>632</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="3">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.65804200000000002</v>
+        <v>12.05</v>
       </c>
       <c r="N9" s="3">
-        <v>37.651181000000001</v>
+        <v>41.966667000000001</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="Y9" s="3">
-        <v>467.16</v>
+        <v>1.3</v>
       </c>
       <c r="Z9" s="3">
-        <v>75.95</v>
+        <v>3.8</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AB9" s="3">
         <v>18</v>
@@ -2632,172 +2501,188 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="AF9" s="3">
-        <v>741.48</v>
+        <v>1.4</v>
       </c>
       <c r="AG9" s="3">
-        <v>339.39</v>
+        <v>3.6</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AI9" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-      <c r="AL9" s="3">
-        <v>2012</v>
+      <c r="AL9" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AN9" s="3">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="AO9" s="3">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="3">
-        <v>-1.0546954702622591</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>0.1189506830979251</v>
+        <v>66</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV9">
+        <v>-2.6240773509969E-2</v>
+      </c>
+      <c r="AW9">
+        <v>0.12699631132404979</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3">
-        <v>633</v>
+        <v>528</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="M10" s="3">
-        <v>14.308332999999999</v>
+        <v>34.858556</v>
       </c>
       <c r="N10" s="3">
-        <v>42.274999999999999</v>
+        <v>32.117806000000002</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>81</v>
+      <c r="P10" s="4">
+        <v>2008</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="V10" s="3">
+        <v>10</v>
+      </c>
+      <c r="W10" s="3">
+        <v>9</v>
+      </c>
+      <c r="X10" s="3">
+        <v>2008</v>
       </c>
       <c r="Y10" s="3">
-        <v>18.7</v>
+        <v>3.09</v>
       </c>
       <c r="Z10" s="3">
-        <v>6.09</v>
+        <v>0.46</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AB10" s="3">
-        <v>27</v>
-      </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>2008</v>
       </c>
       <c r="AF10" s="3">
-        <v>22.18</v>
+        <v>3.1</v>
       </c>
       <c r="AG10" s="3">
-        <v>3.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AI10" s="3">
-        <v>27</v>
-      </c>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>11</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>2008</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN10" s="3">
-        <v>24</v>
-      </c>
-      <c r="AO10" s="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>2.5</v>
+      </c>
       <c r="AP10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AR10" s="3" t="s">
         <v>64</v>
@@ -2809,61 +2694,61 @@
         <v>103</v>
       </c>
       <c r="AU10" s="4"/>
-      <c r="AV10" s="3">
-        <v>-0.69293503611217433</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>7.8851418826379735E-2</v>
+      <c r="AV10">
+        <v>-1.658697685787152E-2</v>
+      </c>
+      <c r="AW10">
+        <v>0.58337492540364999</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B11" s="3">
-        <v>505</v>
+        <v>632</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="3">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="M11" s="3">
-        <v>9.5715830000000004</v>
+        <v>12.05</v>
       </c>
       <c r="N11" s="3">
-        <v>51.731583000000001</v>
+        <v>41.966667000000001</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>55</v>
@@ -2872,47 +2757,47 @@
         <v>56</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3">
-        <v>1967</v>
+        <v>2001</v>
       </c>
       <c r="Y11" s="3">
-        <v>12.58</v>
+        <v>3.1</v>
       </c>
       <c r="Z11" s="3">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="AB11" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="AF11" s="3">
-        <v>20.16</v>
+        <v>1.5</v>
       </c>
       <c r="AG11" s="3">
-        <v>17.18</v>
+        <v>6.2</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AI11" s="3">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
@@ -2923,52 +2808,54 @@
         <v>82</v>
       </c>
       <c r="AN11" s="3">
-        <v>552</v>
+        <v>12</v>
       </c>
       <c r="AO11" s="3">
-        <v>552</v>
+        <v>12</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="3">
-        <v>-0.56736843271416071</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>4.2524019509711818E-2</v>
+        <v>66</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV11">
+        <v>0.26580263383949693</v>
+      </c>
+      <c r="AW11">
+        <v>0.1282342918835665</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3">
-        <v>633</v>
+        <v>317</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>48</v>
@@ -2977,7 +2864,7 @@
         <v>2018</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>110</v>
@@ -2989,86 +2876,88 @@
         <v>52</v>
       </c>
       <c r="M12" s="3">
-        <v>14.308332999999999</v>
+        <v>12.167515</v>
       </c>
       <c r="N12" s="3">
-        <v>42.274999999999999</v>
+        <v>44.602800000000002</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="3" t="s">
-        <v>81</v>
+      <c r="X12" s="3">
+        <v>2002</v>
       </c>
       <c r="Y12" s="3">
-        <v>21.05</v>
+        <v>1.5</v>
       </c>
       <c r="Z12" s="3">
-        <v>2.68</v>
+        <v>1.08</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AB12" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3" t="s">
-        <v>81</v>
+      <c r="AE12" s="3">
+        <v>2011</v>
       </c>
       <c r="AF12" s="3">
-        <v>23.03</v>
+        <v>1.17</v>
       </c>
       <c r="AG12" s="3">
-        <v>4.16</v>
+        <v>0.46</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AI12" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="3" t="s">
-        <v>81</v>
+      <c r="AL12" s="3">
+        <v>2003</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN12" s="3">
-        <v>24</v>
-      </c>
-      <c r="AO12" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>108</v>
+      </c>
       <c r="AP12" s="3" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>85</v>
@@ -3077,25 +2966,25 @@
         <v>103</v>
       </c>
       <c r="AU12" s="4"/>
-      <c r="AV12" s="3">
-        <v>-0.55326275434517791</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>0.1158559812219869</v>
+      <c r="AV12">
+        <v>0.38382601950671552</v>
+      </c>
+      <c r="AW12">
+        <v>0.17030257773996799</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="3">
+        <v>317</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="3">
-        <v>632</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>189</v>
@@ -3107,7 +2996,7 @@
         <v>48</v>
       </c>
       <c r="H13" s="3">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -3122,10 +3011,10 @@
         <v>52</v>
       </c>
       <c r="M13" s="3">
-        <v>12.05</v>
+        <v>12.167515</v>
       </c>
       <c r="N13" s="3">
-        <v>41.966667000000001</v>
+        <v>44.602800000000002</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>53</v>
@@ -3137,7 +3026,7 @@
         <v>55</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>193</v>
@@ -3145,211 +3034,197 @@
       <c r="T13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>162</v>
+      <c r="U13" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="Y13" s="3">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="Z13" s="3">
-        <v>3.8</v>
+        <v>0.46</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB13" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="AF13" s="3">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AG13" s="3">
-        <v>3.6</v>
+        <v>0.74</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>195</v>
       </c>
       <c r="AI13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
-      <c r="AL13" s="3" t="s">
-        <v>81</v>
+      <c r="AL13" s="3">
+        <v>2012</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AN13" s="3">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AO13" s="3">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AR13" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU13" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>-2.6240773509969E-2</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>0.12699631132404979</v>
+        <v>103</v>
+      </c>
+      <c r="AU13" s="4"/>
+      <c r="AV13">
+        <v>0.43875796416791862</v>
+      </c>
+      <c r="AW13">
+        <v>0.17141776975602269</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="3">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="M14" s="3">
-        <v>34.858556</v>
+        <v>9.5715830000000004</v>
       </c>
       <c r="N14" s="3">
-        <v>32.117806000000002</v>
+        <v>51.731583000000001</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="4">
-        <v>2008</v>
+      <c r="P14" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="3">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3">
-        <v>9</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="3">
-        <v>2008</v>
+        <v>1967</v>
       </c>
       <c r="Y14" s="3">
-        <v>3.09</v>
+        <v>14.45</v>
       </c>
       <c r="Z14" s="3">
-        <v>0.46</v>
+        <v>11.72</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AB14" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>24</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
       <c r="AE14" s="3">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="AF14" s="3">
-        <v>3.1</v>
+        <v>6.88</v>
       </c>
       <c r="AG14" s="3">
-        <v>0.56999999999999995</v>
+        <v>10.3</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AI14" s="3">
-        <v>3</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>11</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>2008</v>
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AN14" s="3">
-        <v>0.6</v>
+        <v>552</v>
       </c>
       <c r="AO14" s="3">
-        <v>2.5</v>
+        <v>552</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AR14" s="3" t="s">
         <v>64</v>
@@ -3361,61 +3236,61 @@
         <v>103</v>
       </c>
       <c r="AU14" s="4"/>
-      <c r="AV14" s="3">
-        <v>-1.658697685787152E-2</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>0.58337492540364999</v>
+      <c r="AV14">
+        <v>0.66880977139428499</v>
+      </c>
+      <c r="AW14">
+        <v>0.13291505542237719</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B15" s="3">
-        <v>632</v>
+        <v>294</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="3">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="M15" s="3">
-        <v>12.05</v>
+        <v>13.53669</v>
       </c>
       <c r="N15" s="3">
-        <v>41.966667000000001</v>
+        <v>55.940420000000003</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>55</v>
@@ -3424,99 +3299,99 @@
         <v>56</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="Y15" s="3">
-        <v>3.1</v>
+        <v>123.93</v>
       </c>
       <c r="Z15" s="3">
-        <v>5.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AB15" s="3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="AF15" s="3">
-        <v>1.5</v>
+        <v>106.67</v>
       </c>
       <c r="AG15" s="3">
-        <v>6.2</v>
+        <v>27.67</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AI15" s="3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="3" t="s">
-        <v>81</v>
+      <c r="AL15" s="3">
+        <v>2001</v>
       </c>
       <c r="AM15" s="3" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AN15" s="3">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="AO15" s="3">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AT15" s="3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>0.26580263383949693</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>0.1282342918835665</v>
+        <v>213</v>
+      </c>
+      <c r="AV15">
+        <v>0.66974432775897219</v>
+      </c>
+      <c r="AW15">
+        <v>7.8536999498571028E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B16" s="3">
-        <v>317</v>
+        <v>586</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>216</v>
@@ -3528,7 +3403,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>218</v>
@@ -3537,361 +3412,367 @@
         <v>110</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="M16" s="3">
-        <v>12.167515</v>
+        <v>25.866510000000002</v>
       </c>
       <c r="N16" s="3">
-        <v>44.602800000000002</v>
+        <v>40.167850000000001</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>221</v>
+      <c r="U16" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="Y16" s="3">
-        <v>1.5</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Z16" s="3">
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB16" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="AF16" s="3">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="AG16" s="3">
-        <v>0.46</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI16" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN16" s="3">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="AO16" s="3">
         <v>108</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AS16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AU16" s="4"/>
-      <c r="AV16" s="3">
-        <v>0.38382601950671552</v>
-      </c>
-      <c r="AW16" s="3">
-        <v>0.17030257773996799</v>
+      <c r="AV16">
+        <v>0.68160831291404766</v>
+      </c>
+      <c r="AW16">
+        <v>0.14218023750100309</v>
       </c>
     </row>
     <row r="17" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="3">
+        <v>304</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="3">
-        <v>317</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="M17" s="3">
-        <v>12.167515</v>
+        <v>12.6081</v>
       </c>
       <c r="N17" s="3">
-        <v>44.602800000000002</v>
+        <v>41.388100000000001</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>221</v>
+      <c r="U17" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="W17" s="3">
+        <v>11</v>
+      </c>
       <c r="X17" s="3">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="Y17" s="3">
-        <v>1.17</v>
+        <v>4.43</v>
       </c>
       <c r="Z17" s="3">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AB17" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
+      <c r="AD17" s="3">
+        <v>2</v>
+      </c>
       <c r="AE17" s="3">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="AF17" s="3">
-        <v>0.89</v>
+        <v>3.52</v>
       </c>
       <c r="AG17" s="3">
-        <v>0.74</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AI17" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN17" s="3">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AO17" s="3">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AS17" s="3" t="s">
         <v>85</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AU17" s="4"/>
-      <c r="AV17" s="3">
-        <v>0.43875796416791862</v>
-      </c>
-      <c r="AW17" s="3">
-        <v>0.17141776975602269</v>
+      <c r="AV17">
+        <v>1.0741783034927841</v>
+      </c>
+      <c r="AW17">
+        <v>0.10524107530555241</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B18" s="3">
-        <v>505</v>
+        <v>920</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="M18" s="3">
-        <v>9.5715830000000004</v>
+        <v>9.4310279999999995</v>
       </c>
       <c r="N18" s="3">
-        <v>51.731583000000001</v>
+        <v>46.307333</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3">
-        <v>1967</v>
+        <v>2015</v>
       </c>
       <c r="Y18" s="3">
-        <v>14.45</v>
+        <v>1.39</v>
       </c>
       <c r="Z18" s="3">
-        <v>11.72</v>
+        <v>0.22</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AB18" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="AF18" s="3">
-        <v>6.88</v>
+        <v>1.01</v>
       </c>
       <c r="AG18" s="3">
-        <v>10.3</v>
+        <v>0.41</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="AI18" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3" t="s">
-        <v>81</v>
+      <c r="AK18" s="3">
+        <v>8</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>2017</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AN18" s="3">
-        <v>552</v>
+        <v>12</v>
       </c>
       <c r="AO18" s="3">
-        <v>552</v>
+        <v>36</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="AR18" s="3" t="s">
         <v>64</v>
@@ -3900,34 +3781,36 @@
         <v>85</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="3">
-        <v>0.66880977139428499</v>
-      </c>
-      <c r="AW18" s="3">
-        <v>0.13291505542237719</v>
+        <v>86</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV18">
+        <v>1.084509868838216</v>
+      </c>
+      <c r="AW18">
+        <v>0.17528494897500921</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B19" s="3">
         <v>294</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>48</v>
@@ -3936,7 +3819,7 @@
         <v>2023</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>50</v>
@@ -3945,7 +3828,7 @@
         <v>51</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="M19" s="3">
         <v>13.53669</v>
@@ -3957,7 +3840,7 @@
         <v>53</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>55</v>
@@ -3966,13 +3849,13 @@
         <v>56</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -3980,13 +3863,13 @@
         <v>1989</v>
       </c>
       <c r="Y19" s="3">
-        <v>123.93</v>
+        <v>126.41</v>
       </c>
       <c r="Z19" s="3">
-        <v>22.9</v>
+        <v>25.15</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="AB19" s="3">
         <v>27</v>
@@ -3997,13 +3880,13 @@
         <v>2021</v>
       </c>
       <c r="AF19" s="3">
-        <v>106.67</v>
+        <v>90.96</v>
       </c>
       <c r="AG19" s="3">
-        <v>27.67</v>
+        <v>31.27</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="AI19" s="3">
         <v>27</v>
@@ -4011,22 +3894,22 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN19" s="3">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="AO19" s="3">
         <v>384</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AR19" s="3" t="s">
         <v>64</v>
@@ -4038,319 +3921,319 @@
         <v>86</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV19" s="3">
-        <v>0.66974432775897219</v>
-      </c>
-      <c r="AW19" s="3">
-        <v>7.8536999498571028E-2</v>
+        <v>246</v>
+      </c>
+      <c r="AV19">
+        <v>1.231197501077254</v>
+      </c>
+      <c r="AW19">
+        <v>8.9156006556995696E-2</v>
       </c>
     </row>
     <row r="20" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="3">
-        <v>586</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="H20" s="3">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M20" s="3">
-        <v>25.866510000000002</v>
+        <v>2.1045310000000002</v>
       </c>
       <c r="N20" s="3">
-        <v>40.167850000000001</v>
+        <v>41.691493999999999</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>115</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="Y20" s="3">
-        <v>2.1800000000000002</v>
+        <v>40</v>
       </c>
       <c r="Z20" s="3">
-        <v>0.48</v>
+        <v>2.87</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AB20" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="AF20" s="3">
-        <v>1.59</v>
+        <v>24</v>
       </c>
       <c r="AG20" s="3">
-        <v>1.0900000000000001</v>
+        <v>11.85</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AI20" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
+      <c r="AK20" s="3">
+        <v>8</v>
+      </c>
       <c r="AL20" s="3">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN20" s="3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AO20" s="3">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AS20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AT20" s="3" t="s">
-        <v>86</v>
+      <c r="AT20" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="AU20" s="4"/>
-      <c r="AV20" s="3">
-        <v>0.68160831291404766</v>
-      </c>
-      <c r="AW20" s="3">
-        <v>0.14218023750100309</v>
+      <c r="AV20">
+        <v>1.3339189068004469</v>
+      </c>
+      <c r="AW20">
+        <v>0.58163654658589747</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B21" s="3">
-        <v>304</v>
+        <v>723</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H21" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M21" s="3">
-        <v>12.6081</v>
+        <v>2.9398810000000002</v>
       </c>
       <c r="N21" s="3">
-        <v>41.388100000000001</v>
+        <v>42.471896000000001</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>115</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="3">
-        <v>11</v>
-      </c>
+      <c r="W21" s="3"/>
       <c r="X21" s="3">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="Y21" s="3">
-        <v>4.43</v>
+        <v>2.27</v>
       </c>
       <c r="Z21" s="3">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AB21" s="3">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="3">
-        <v>2</v>
-      </c>
+      <c r="AD21" s="3"/>
       <c r="AE21" s="3">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="AF21" s="3">
-        <v>3.52</v>
+        <v>1.5</v>
       </c>
       <c r="AG21" s="3">
-        <v>1.1100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AI21" s="3">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
+      <c r="AK21" s="3">
+        <v>8</v>
+      </c>
       <c r="AL21" s="3">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN21" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AO21" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AS21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="3">
-        <v>1.0741783034927841</v>
-      </c>
-      <c r="AW21" s="3">
-        <v>0.10524107530555241</v>
+        <v>103</v>
+      </c>
+      <c r="AU21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV21">
+        <v>2.006242188213609</v>
+      </c>
+      <c r="AW21">
+        <v>7.83855556079876E-2</v>
       </c>
     </row>
     <row r="22" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="B22" s="3">
-        <v>920</v>
+        <v>847</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>51</v>
@@ -4359,793 +4242,102 @@
         <v>52</v>
       </c>
       <c r="M22" s="3">
-        <v>9.4310279999999995</v>
+        <v>13.013610999999999</v>
       </c>
       <c r="N22" s="3">
-        <v>46.307333</v>
+        <v>43.106667000000002</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3">
-        <v>2015</v>
+        <v>1980</v>
       </c>
       <c r="Y22" s="3">
-        <v>1.39</v>
+        <v>7.79</v>
       </c>
       <c r="Z22" s="3">
-        <v>0.22</v>
+        <v>1.5</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="AB22" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="AF22" s="3">
-        <v>1.01</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AG22" s="3">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="AI22" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ22" s="3"/>
-      <c r="AK22" s="3">
-        <v>8</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>2017</v>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AN22" s="3">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="AO22" s="3">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="AR22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="AU22" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AV22" s="3">
-        <v>1.084509868838216</v>
-      </c>
-      <c r="AW22" s="3">
-        <v>0.17528494897500921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="3">
-        <v>294</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2023</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M23" s="3">
-        <v>13.53669</v>
-      </c>
-      <c r="N23" s="3">
-        <v>55.940420000000003</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3">
-        <v>1989</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>126.41</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>25.15</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>27</v>
-      </c>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3">
-        <v>2021</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>90.96</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>31.27</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>27</v>
-      </c>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3">
-        <v>1989</v>
-      </c>
-      <c r="AM23" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>384</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>384</v>
-      </c>
-      <c r="AP23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ23" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU23" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV23" s="3">
-        <v>1.231197501077254</v>
-      </c>
-      <c r="AW23" s="3">
-        <v>8.9156006556995696E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2009</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2.1045310000000002</v>
-      </c>
-      <c r="N24" s="3">
-        <v>41.691493999999999</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3">
-        <v>2003</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>40</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>2.87</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3">
-        <v>2005</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>24</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>11.85</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>24</v>
-      </c>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3">
-        <v>8</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>2003</v>
-      </c>
-      <c r="AM24" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>23</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>24</v>
-      </c>
-      <c r="AP24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ24" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT24" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="3">
-        <v>1.3339189068004469</v>
-      </c>
-      <c r="AW24" s="3">
-        <v>0.58163654658589747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="3">
-        <v>241</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2008</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M25" s="3">
-        <v>14.658735999999999</v>
-      </c>
-      <c r="N25" s="3">
-        <v>57.31232</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3">
-        <v>10</v>
-      </c>
-      <c r="X25" s="3">
-        <v>2001</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>38.659999999999997</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>7.34</v>
-      </c>
-      <c r="AA25" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>42</v>
-      </c>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>2003</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>27.94</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>6.34</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>42</v>
-      </c>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3">
-        <v>2003</v>
-      </c>
-      <c r="AM25" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>10</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>24</v>
-      </c>
-      <c r="AP25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ25" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU25" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="AV25" s="3">
-        <v>1.548733324885978</v>
-      </c>
-      <c r="AW25" s="3">
-        <v>6.2563003208286144E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B26" s="3">
-        <v>723</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2016</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2.9398810000000002</v>
-      </c>
-      <c r="N26" s="3">
-        <v>42.471896000000001</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3">
-        <v>2012</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>2.27</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="AA26" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>39</v>
-      </c>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3">
-        <v>2014</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="AH26" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>39</v>
-      </c>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3">
-        <v>8</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>2012</v>
-      </c>
-      <c r="AM26" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>20</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>24</v>
-      </c>
-      <c r="AP26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ26" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU26" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV26" s="3">
-        <v>2.006242188213609</v>
-      </c>
-      <c r="AW26" s="3">
-        <v>7.83855556079876E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B27" s="3">
-        <v>847</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2013</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="3">
-        <v>13.013610999999999</v>
-      </c>
-      <c r="N27" s="3">
-        <v>43.106667000000002</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3">
-        <v>1980</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>7.79</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3">
-        <v>2010</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="AH27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>30</v>
-      </c>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM27" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>360</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>360</v>
-      </c>
-      <c r="AP27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU27" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="AV27" s="3">
+        <v>269</v>
+      </c>
+      <c r="AV22">
         <v>6.1196655832489864</v>
       </c>
-      <c r="AW27" s="3">
+      <c r="AW22">
         <v>0.39953847523954572</v>
       </c>
     </row>
